--- a/data/trans_dic/P18_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P18_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido sola en algún momento o más en la última semana</t>
+          <t>Población que se ha sentido sola en algún momento o más en la última semana (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>66,11%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>83,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>56,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>69,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>72,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>75,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>63,17%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>70,75%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>80,06%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>80,19%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>71,24%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>73,18%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>64,03%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,1; 16,17</t>
+          <t>80,39; 97,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 42,34</t>
+          <t>74,98; 96,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,86; 46,82</t>
+          <t>34,57; 87,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,8; 25,45</t>
+          <t>67,81; 95,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,98; 28,74</t>
+          <t>22,87; 84,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,23; 30,23</t>
+          <t>56,4; 82,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,93; 29,29</t>
+          <t>57,73; 83,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,7; 31,72</t>
+          <t>61,14; 86,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,71; 20,42</t>
+          <t>47,44; 76,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,26; 31,6</t>
+          <t>53,62; 83,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,27; 34,07</t>
+          <t>70,42; 87,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,55; 26,37</t>
+          <t>69,66; 87,2</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>51,17; 83,1</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>61,06; 83,66</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>38,06; 78,05</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>86,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>85,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>80,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>71,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>73,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>76,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>71,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>67,7%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>67,72%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>79,5%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>80,94%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>75,62%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>75,31%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>69,69%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,15; 22,58</t>
+          <t>79,73; 91,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,25; 19,74</t>
+          <t>77,74; 90,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,02; 29,49</t>
+          <t>67,22; 87,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,41; 23,44</t>
+          <t>74,08; 88,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,98; 32,01</t>
+          <t>58,36; 79,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,66; 24,32</t>
+          <t>66,55; 79,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,56; 34,03</t>
+          <t>70,38; 82,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,35; 37,65</t>
+          <t>62,93; 77,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,22; 25,54</t>
+          <t>59,97; 74,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,94; 20,27</t>
+          <t>60,53; 74,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,43; 30,13</t>
+          <t>74,64; 83,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,99; 27,93</t>
+          <t>75,77; 84,62</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>68,54; 80,47</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>69,61; 79,97</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>62,67; 74,94</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>82,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>82,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>78,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>72,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>77,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>74,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>83,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>73,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>70,03%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>62,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>77,83%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>82,94%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>75,72%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>71,27%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>69,37%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,88; 23,22</t>
+          <t>74,45; 88,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 21,88</t>
+          <t>74,49; 88,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,61; 27,6</t>
+          <t>67,95; 86,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,19; 32,25</t>
+          <t>62,74; 80,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,56; 31,84</t>
+          <t>67,08; 84,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,3; 24,59</t>
+          <t>67,27; 80,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,9; 32,11</t>
+          <t>76,77; 88,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,3; 37,18</t>
+          <t>66,41; 80,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,03; 26,06</t>
+          <t>62,65; 77,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,09; 20,95</t>
+          <t>53,74; 69,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,92; 27,27</t>
+          <t>72,54; 82,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,77; 32,78</t>
+          <t>78,56; 87,22</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>69,45; 80,73</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>65,79; 76,19</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>63,22; 74,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,46; 18,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,45; 20,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,47; 27,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,09; 22,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,45; 28,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,63; 22,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 29,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,6; 33,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,98; 23,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,05; 20,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,55; 27,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,73; 27,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>85,48%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>84,79%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>77,78%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>79,22%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>70,88%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>73,2%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>78,9%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>72,58%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>67,97%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>66,36%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>78,91%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>81,62%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>75,06%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>73,49%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>68,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>81,27; 89,09</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80,2; 88,85</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>69,0; 83,69</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>73,17; 84,09</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>59,41; 78,59</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>68,63; 77,76</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>74,83; 82,77</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>67,62; 76,61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>63,29; 72,67</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>61,04; 71,17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>75,73; 82,29</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>78,26; 84,27</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>70,4; 78,84</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>69,52; 77,1</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>62,43; 72,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido sola en algún momento o más en la última semana (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>94948</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>114279</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>69717</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>95515</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>99720</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>82113</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>103311</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>87690</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>75731</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>147464</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>177060</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>217589</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>157408</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>171246</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>247184</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>83085; 101118</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>96643; 124100</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>36460; 92657</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>77391; 108679</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>40633; 150761</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>66442; 96798</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>82249; 119610</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>70618; 100011</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>56876; 91321</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>111764; 173052</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>155732; 193704</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>189021; 236632</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>113061; 183619</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>142893; 195789</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>146927; 301341</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>315650</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>366124</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>301926</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>329239</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>369873</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>285885</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>357420</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>270611</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>252668</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>335005</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>601535</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>723543</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>572537</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>581906</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>704878</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>291830; 333600</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>333860; 386980</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>252933; 328684</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>295932; 354400</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>301585; 412161</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>259986; 309367</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>326877; 383568</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>239688; 293769</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>223793; 276694</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>299411; 368586</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>564785; 632052</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>677381; 756423</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>518963; 609253</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>537883; 617883</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>633868; 757910</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>235013</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>275258</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>222680</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>200332</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>273015</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>267410</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>356154</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>252132</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>229318</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>249218</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>502423</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>631412</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>474812</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>429649</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>522232</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>212871; 251906</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>247985; 294728</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>191866; 243939</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>172775; 221250</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>236968; 297119</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>241921; 289996</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>328863; 377769</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>228878; 276505</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>205132; 252628</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>214711; 278732</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>468297; 531736</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>598111; 664032</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>435484; 506189</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>396605; 459275</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>475935; 563982</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>559.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>577.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>551.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>522.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>504.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>645610</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>755660</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>594323</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>625085</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>742609</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>635408</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>816884</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>610434</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>557717</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>731686</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1281018</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1572545</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1204757</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1182803</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1474295</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>613847; 672849</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>714798; 791881</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>527235; 639511</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>577307; 663444</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>622362; 823312</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>595727; 674983</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>774754; 856939</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>568683; 644359</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>519294; 596281</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>673060; 784800</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1229405; 1335834</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1507776; 1623502</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1130025; 1265499</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1118992; 1240982</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1342423; 1563216</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
